--- a/PM_Preliminary Model/CdCF.xlsx
+++ b/PM_Preliminary Model/CdCF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\PRELIMINARY MODEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\PM_Preliminary Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAA0C48-B15C-4E69-9937-3581D20AD0B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAED4D7-1C3D-455E-A6CE-11ACB5682733}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0622CD7C-6DB9-498E-A8DD-1134B7BFD55E}"/>
   </bookViews>
@@ -57,15 +57,6 @@
     <t>FC1: Contraintes dimensionnelles</t>
   </si>
   <si>
-    <t>Longueur</t>
-  </si>
-  <si>
-    <t>Largeur</t>
-  </si>
-  <si>
-    <t>Hauteur</t>
-  </si>
-  <si>
     <t>FC2: Contraintes massiques</t>
   </si>
   <si>
@@ -85,6 +76,15 @@
   </si>
   <si>
     <t>Puissance</t>
+  </si>
+  <si>
+    <t>Voie</t>
+  </si>
+  <si>
+    <t>Empatement</t>
+  </si>
+  <si>
+    <t>&gt;85hp</t>
   </si>
 </sst>
 </file>
@@ -120,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,16 +437,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033666C4-6262-4316-9C38-2CB508CD2965}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,46 +479,47 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C12" t="s">
         <v>17</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/PM_Preliminary Model/CdCF.xlsx
+++ b/PM_Preliminary Model/CdCF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\PM_Preliminary Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAED4D7-1C3D-455E-A6CE-11ACB5682733}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF753CA1-A005-418F-8336-D2F24FE91EB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0622CD7C-6DB9-498E-A8DD-1134B7BFD55E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Fonction</t>
   </si>
@@ -66,15 +66,6 @@
     <t>Hauteur du centre de gravité</t>
   </si>
   <si>
-    <t>FC3 : Présenter un bon comportement en virage</t>
-  </si>
-  <si>
-    <t>Roll gradient</t>
-  </si>
-  <si>
-    <t>FC4: Comportement à l'accel</t>
-  </si>
-  <si>
     <t>Puissance</t>
   </si>
   <si>
@@ -85,14 +76,55 @@
   </si>
   <si>
     <t>&gt;85hp</t>
+  </si>
+  <si>
+    <t>+/-10kg</t>
+  </si>
+  <si>
+    <t>+/-2cm</t>
+  </si>
+  <si>
+    <t>Complète</t>
+  </si>
+  <si>
+    <t>1600mm</t>
+  </si>
+  <si>
+    <t>+/-50mm</t>
+  </si>
+  <si>
+    <t>1250mm</t>
+  </si>
+  <si>
+    <t>+/-40mm</t>
+  </si>
+  <si>
+    <t>-5hp</t>
+  </si>
+  <si>
+    <t>FC3: Comportement à l'accelération</t>
+  </si>
+  <si>
+    <t>300mm</t>
+  </si>
+  <si>
+    <t>190kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,9 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,29 +470,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033666C4-6262-4316-9C38-2CB508CD2965}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -470,22 +504,43 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -494,35 +549,43 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.1</v>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>